--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3699.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3699.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.377728509650738</v>
+        <v>1.230414390563965</v>
       </c>
       <c r="B1">
-        <v>2.84353923469544</v>
+        <v>3.267342567443848</v>
       </c>
       <c r="C1">
-        <v>7.572807235658281</v>
+        <v>4.606362342834473</v>
       </c>
       <c r="D1">
-        <v>1.945094029609775</v>
+        <v>2.185204267501831</v>
       </c>
       <c r="E1">
-        <v>1.001967504880588</v>
+        <v>1.526758551597595</v>
       </c>
     </row>
   </sheetData>
